--- a/Total Cost.xlsx
+++ b/Total Cost.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cgman\Desktop\Projects\X-Keyboards\HandwireCustom\HandwireCustom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F74B3D-9863-48D4-9D52-430108843155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95EFF973-6CFA-4AD3-9020-18447558C7C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12900" yWindow="0" windowWidth="25800" windowHeight="21000" xr2:uid="{474EE8BB-8403-4642-9E94-228D8AEC6B77}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="12600" xr2:uid="{474EE8BB-8403-4642-9E94-228D8AEC6B77}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>Material</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>TIP120</t>
+  </si>
+  <si>
+    <t>JLCPCB Total</t>
   </si>
 </sst>
 </file>
@@ -529,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1B43FF8-2E9A-46D3-9AC9-346248A12D8C}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,7 +586,7 @@
       <c r="C3" s="4"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5">
-        <v>14.1</v>
+        <v>13.6</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -601,7 +604,7 @@
       <c r="C5" s="4"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5">
-        <v>25.39</v>
+        <v>24.04</v>
       </c>
       <c r="G5" t="s">
         <v>13</v>
@@ -618,7 +621,7 @@
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5">
-        <v>5.86</v>
+        <v>6</v>
       </c>
       <c r="G6" t="s">
         <v>14</v>
@@ -635,7 +638,7 @@
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5">
-        <v>1.1000000000000001</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="G7" t="s">
         <v>9</v>
@@ -675,7 +678,7 @@
       <c r="C10" s="4"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5">
-        <v>14.92</v>
+        <v>18.170000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -801,7 +804,7 @@
       </c>
       <c r="E20" s="1">
         <f>SUM(E2:E17)</f>
-        <v>177.22000000000003</v>
+        <v>178.79000000000002</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -810,7 +813,16 @@
       </c>
       <c r="E21" s="1">
         <f>E20/5</f>
-        <v>35.444000000000003</v>
+        <v>35.758000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="1">
+        <f>SUM(E2:E10)</f>
+        <v>76.44</v>
       </c>
     </row>
   </sheetData>
